--- a/game/assets/i18n/items.xlsx
+++ b/game/assets/i18n/items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{334CA283-5FA4-48B7-970E-90FB97B0D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA3AD110-6FCC-4F8F-9AA4-157AEA5AEEE0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A50F16-48DC-4117-BE24-0FD72D3CD2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>clés</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Keylocked</t>
+  </si>
+  <si>
+    <t>Lock broken!</t>
+  </si>
+  <si>
+    <t>Serrure forcée !</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +626,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
